--- a/asset/other/_②GigaFile便アップロード時に添付する資料/_▼【ゲーム制作／2021年度前期】オンライン試遊会_作品情報情報シート_ver2.xlsx
+++ b/asset/other/_②GigaFile便アップロード時に添付する資料/_▼【ゲーム制作／2021年度前期】オンライン試遊会_作品情報情報シート_ver2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70729\Desktop\▼【【2年生／SICテーマ『ユーザーがスコアを競い合う３Dゲーム』】／2021年度SIC／ゲーム制作】_提出について\_②GigaFile便アップロード時に添付する資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SIC(仮)\SIC-tentative\asset\other\_②GigaFile便アップロード時に添付する資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B62745-2CC8-430C-AD8E-6328D44091CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22092" windowHeight="8040" tabRatio="468"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発情報シート" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>チームNo</t>
     <phoneticPr fontId="1"/>
@@ -425,11 +426,46 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>おちるすらいむ おちすら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GE1A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮井駿英</t>
+    <rPh sb="0" eb="4">
+      <t>ミヤイシュンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>濱田 樹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>布本 淳朗</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインPG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アートD</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1142,33 +1178,156 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1176,12 +1335,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1194,123 +1347,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1593,49 +1629,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="F19" sqref="F19:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.9" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="15" width="10.59765625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="14.09765625" style="7" customWidth="1"/>
+    <col min="1" max="15" width="10.625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="14.125" style="7" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="7" customWidth="1"/>
-    <col min="18" max="18" width="14.3984375" style="7" customWidth="1"/>
-    <col min="19" max="19" width="13.69921875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="14.375" style="7" customWidth="1"/>
+    <col min="19" max="19" width="13.75" style="7" customWidth="1"/>
     <col min="20" max="20" width="9" style="7"/>
     <col min="21" max="21" width="9" style="7" customWidth="1"/>
     <col min="22" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="I1" s="55" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="I1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-    </row>
-    <row r="2" spans="1:24" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+    </row>
+    <row r="2" spans="1:24" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1651,78 +1687,82 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:24" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:24" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="29"/>
-      <c r="I3" s="28" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="I3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="58" t="s">
+      <c r="J3" s="24"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-    </row>
-    <row r="4" spans="1:24" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="67"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="62"/>
-      <c r="I4" s="28" t="s">
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+    </row>
+    <row r="4" spans="1:24" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="46">
+        <v>1008</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="I4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="35"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="44"/>
       <c r="M4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="34"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="58" t="s">
+      <c r="N4" s="43"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-    </row>
-    <row r="5" spans="1:24" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="68"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="64"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+    </row>
+    <row r="5" spans="1:24" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="47"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
       <c r="I5" s="19" t="s">
         <v>8</v>
       </c>
@@ -1735,31 +1775,31 @@
       <c r="L5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="74" t="s">
+      <c r="M5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="74"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="57" t="s">
+      <c r="N5" s="50"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-    </row>
-    <row r="6" spans="1:24" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="69"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="66"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+    </row>
+    <row r="6" spans="1:24" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="48"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
       <c r="I6" s="10" t="s">
         <v>13</v>
       </c>
@@ -1772,205 +1812,223 @@
       <c r="L6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="51" t="s">
+      <c r="M6" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="52"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="50" t="s">
+      <c r="N6" s="56"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="50"/>
-    </row>
-    <row r="7" spans="1:24" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+    </row>
+    <row r="7" spans="1:24" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="42" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="40" t="s">
+      <c r="E7" s="68"/>
+      <c r="F7" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="41"/>
+      <c r="G7" s="66"/>
       <c r="I7" s="13"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="47"/>
-    </row>
-    <row r="8" spans="1:24" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="9"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="54"/>
+    </row>
+    <row r="8" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
       <c r="I8" s="13"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="47"/>
-    </row>
-    <row r="9" spans="1:24" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="12"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="54"/>
+    </row>
+    <row r="9" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="69"/>
+      <c r="D9" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="47"/>
-    </row>
-    <row r="10" spans="1:24" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="15"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="54"/>
+    </row>
+    <row r="10" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="69"/>
+      <c r="D10" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="47"/>
-    </row>
-    <row r="11" spans="1:24" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M10" s="52"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="54"/>
+    </row>
+    <row r="11" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="47"/>
-    </row>
-    <row r="12" spans="1:24" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M11" s="52"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="54"/>
+    </row>
+    <row r="12" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
       <c r="I12" s="13"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="47"/>
-    </row>
-    <row r="13" spans="1:24" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M12" s="52"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="54"/>
+    </row>
+    <row r="13" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
       <c r="I13" s="13"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="47"/>
-    </row>
-    <row r="14" spans="1:24" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M13" s="52"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="54"/>
+    </row>
+    <row r="14" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="16"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="61"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-    </row>
-    <row r="15" spans="1:24" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+    </row>
+    <row r="15" spans="1:24" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="16"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="I15" s="56" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="I15" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-    </row>
-    <row r="16" spans="1:24" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+    </row>
+    <row r="16" spans="1:24" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="16"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="I16" s="28" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="61"/>
+      <c r="I16" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="78"/>
-    </row>
-    <row r="17" spans="1:15" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J16" s="24"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="37"/>
+    </row>
+    <row r="17" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="16"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-    </row>
-    <row r="18" spans="1:15" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="73"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="78"/>
+    </row>
+    <row r="18" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
@@ -1978,85 +2036,43 @@
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="I18" s="56" t="s">
+      <c r="I18" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-    </row>
-    <row r="19" spans="1:15" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="28" t="s">
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+    </row>
+    <row r="19" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="76"/>
       <c r="E19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="I19" s="28" t="s">
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+      <c r="I19" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="78"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="37"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="56">
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G6"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="P5:X5"/>
-    <mergeCell ref="P4:X4"/>
-    <mergeCell ref="P3:X3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P6:X6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
@@ -2069,22 +2085,66 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="D17:G17"/>
+    <mergeCell ref="P6:X6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P5:X5"/>
+    <mergeCell ref="P4:X4"/>
+    <mergeCell ref="P3:X3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G6"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:O3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:O3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"無し,有り"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J13" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"3D,2D"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I13" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"CG,PG"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C
 </oddHeader>
@@ -2095,31 +2155,31 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>OFFSET(リスト!$A$1, 1, 0, COUNTA(リスト!$A:$A)-1,1)</xm:f>
           </x14:formula1>
           <xm:sqref>K4:L4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>OFFSET(リスト!$B$1, 1, 0, COUNTA(リスト!$B:$B)-1,1)</xm:f>
           </x14:formula1>
           <xm:sqref>K6:K13</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>OFFSET(リスト!$C$1, 1, 0, COUNTA(リスト!$C:$C)-1,1)</xm:f>
           </x14:formula1>
           <xm:sqref>C19:D19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>OFFSET(リスト!$E$1, 1, 0, COUNTA(リスト!$E:$E)-1,1)</xm:f>
           </x14:formula1>
           <xm:sqref>K16:O16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>OFFSET(リスト!$D$1, 1, 0, COUNTA(リスト!$D:$D)-1,1)</xm:f>
           </x14:formula1>
@@ -2132,18 +2192,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="14.09765625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" style="3" customWidth="1"/>
+    <col min="1" max="2" width="14.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>38</v>
       </c>
@@ -2160,7 +2220,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -2177,7 +2237,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
@@ -2194,7 +2254,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -2205,7 +2265,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -2216,7 +2276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -2227,7 +2287,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
@@ -2235,7 +2295,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
